--- a/courses/microsoft-powerbi-professional-cert/course-1/module-1/adding-data-to-worksheet/exercise-2.xlsx
+++ b/courses/microsoft-powerbi-professional-cert/course-1/module-1/adding-data-to-worksheet/exercise-2.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91722766-2DBB-4AB7-B039-56365B76E76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5465B662-2B41-4046-AA3A-F311824A27FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0810452C-9FFD-4B22-AA5E-32A4DA9D959D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test" sheetId="1" r:id="rId1"/>
-    <sheet name="Sample Figures" sheetId="5" r:id="rId2"/>
-    <sheet name="Contacts" sheetId="2" state="hidden" r:id="rId3"/>
-    <sheet name="Exchange Rates" sheetId="4" r:id="rId4"/>
+    <sheet name="Sample Figures" sheetId="5" r:id="rId1"/>
+    <sheet name="Contacts" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Exchange Rates" sheetId="4" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sample Figures'!$A$1:$H$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sample Figures'!$A$1:$H$29</definedName>
+    <definedName name="Sum_of_E_and_F">'[1]Namebox and adding notes'!$I:$I</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,55 +38,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{87A0712A-DA78-471B-AC64-0A9A15083595}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-To format date:
-1. Ctrl + 1
-2. Choose Date
-3. Choose desired format
-4. Go to custom to add or remove specifiers (d m y) if needed
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>https://support.microsoft.com/en-us/office/format-a-date-the-way-you-want-8e10019e-d5d8-47a1-ba95-db95123d273e</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
@@ -150,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="56">
   <si>
     <t>City</t>
   </si>
@@ -324,13 +278,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(\¥* #,##0.00_);_(\¥* \(#,##0.00\);_(\¥* &quot;&quot;\-&quot;&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="[$-409]dd\ mmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,12 +325,6 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -411,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -434,7 +381,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,6 +396,128 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Namebox and adding notes"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="I2">
+            <v>191111</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="I3">
+            <v>535389</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>203204</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>316861</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>475193</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="I7">
+            <v>417061</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="I8">
+            <v>345809</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="I9">
+            <v>280868</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="I10">
+            <v>511623</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="I11">
+            <v>285123</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="I12">
+            <v>547902</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="I13">
+            <v>495625</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="I14">
+            <v>468961</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="I15">
+            <v>195866</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="I16">
+            <v>236647</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="I17">
+            <v>522374</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="I18">
+            <v>242453</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="I19">
+            <v>281546</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="I20">
+            <v>334887</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="I21">
+            <v>146211</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="I22">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -748,729 +816,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B113F36-E1CD-49EA-93F9-DD60CDD9FDB1}">
-  <dimension ref="A1:T29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" ht="36" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5">
-        <v>125319</v>
-      </c>
-      <c r="F2" s="5">
-        <v>65792</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5">
-        <v>4667</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5">
-        <v>433924</v>
-      </c>
-      <c r="F3" s="5">
-        <v>101465</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5">
-        <v>5068</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="5">
-        <v>135816</v>
-      </c>
-      <c r="F4" s="5">
-        <v>67388</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="5">
-        <v>233255</v>
-      </c>
-      <c r="F5" s="5">
-        <v>83606</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5">
-        <v>5089</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5">
-        <v>392518</v>
-      </c>
-      <c r="F6" s="5">
-        <v>82675</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5">
-        <v>6100</v>
-      </c>
-      <c r="O6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="5">
-        <v>331773</v>
-      </c>
-      <c r="F7" s="5">
-        <v>85288</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5">
-        <v>5795</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5">
-        <v>244975</v>
-      </c>
-      <c r="F8" s="5">
-        <v>100834</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5">
-        <v>5153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="5">
-        <v>207163</v>
-      </c>
-      <c r="F9" s="5">
-        <v>73705</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5">
-        <v>5599</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="5">
-        <v>432326</v>
-      </c>
-      <c r="F10" s="5">
-        <v>79297</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5">
-        <v>4872</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="5">
-        <v>201945</v>
-      </c>
-      <c r="F11" s="5">
-        <v>83178</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5">
-        <v>4734</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="5">
-        <v>461214</v>
-      </c>
-      <c r="F12" s="5">
-        <v>86688</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5">
-        <v>6066</v>
-      </c>
-      <c r="J12" s="10">
-        <v>45324</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="5">
-        <v>407339</v>
-      </c>
-      <c r="F13" s="5">
-        <v>88286</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5">
-        <v>4604</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="5">
-        <v>376263</v>
-      </c>
-      <c r="F14" s="5">
-        <v>92698</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5">
-        <v>5195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="5">
-        <v>128691</v>
-      </c>
-      <c r="F15" s="5">
-        <v>67175</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5">
-        <v>4956</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="5">
-        <v>149134</v>
-      </c>
-      <c r="F16" s="5">
-        <v>87513</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5">
-        <v>5168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="5">
-        <v>440462</v>
-      </c>
-      <c r="F17" s="5">
-        <v>81912</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5">
-        <v>4842</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="5">
-        <v>137925</v>
-      </c>
-      <c r="F18" s="5">
-        <v>104528</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5">
-        <v>5673</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="5">
-        <v>177789</v>
-      </c>
-      <c r="F19" s="5">
-        <v>103757</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5">
-        <v>5144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="5">
-        <v>244913</v>
-      </c>
-      <c r="F20" s="5">
-        <v>89974</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5">
-        <v>5062</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="5">
-        <v>130422</v>
-      </c>
-      <c r="F21" s="5">
-        <v>15789</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5">
-        <v>4522</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="7">
-        <v>421253</v>
-      </c>
-      <c r="F23" s="7">
-        <v>111416</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7">
-        <v>6705</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="7">
-        <v>316390</v>
-      </c>
-      <c r="F24" s="7">
-        <v>102870</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7">
-        <v>8416</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="7">
-        <v>370584</v>
-      </c>
-      <c r="F25" s="7">
-        <v>109975</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7">
-        <v>8581</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="6">
-        <v>467459</v>
-      </c>
-      <c r="F27" s="6">
-        <v>97692</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6">
-        <v>7023</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="6">
-        <v>397331</v>
-      </c>
-      <c r="F28" s="6">
-        <v>109405</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6">
-        <v>4698</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="6">
-        <v>432836</v>
-      </c>
-      <c r="F29" s="6">
-        <v>107434</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6">
-        <v>4505</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F192837-1C5E-4F28-BEEB-9F97B8D22EF4}">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O25" sqref="O25"/>
     </sheetView>
@@ -2182,7 +1531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85FC33AF-F89E-4C17-8BA2-B6D77F587361}">
   <dimension ref="A1:A26"/>
   <sheetViews>
@@ -2331,7 +1680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95908929-B547-4EF4-BF80-8BCFB7CF625E}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -2385,6 +1734,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="15179a99-4cef-4bac-ab20-a4c03d7ec5db" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2aed4346-8012-4133-9837-e496d0f5c99a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006EAC3B332A2FD04E918F9FD72E2B30AC" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5791f7a1e5ce60c682c7fd472657cfed">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2aed4346-8012-4133-9837-e496d0f5c99a" xmlns:ns3="15179a99-4cef-4bac-ab20-a4c03d7ec5db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c4db72e02b896ab7bb9242ff846c9720" ns2:_="" ns3:_="">
     <xsd:import namespace="2aed4346-8012-4133-9837-e496d0f5c99a"/>
@@ -2601,27 +1970,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ACC6A9E-AFDB-4CBD-9896-E5C36F677490}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2aed4346-8012-4133-9837-e496d0f5c99a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="15179a99-4cef-4bac-ab20-a4c03d7ec5db"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="15179a99-4cef-4bac-ab20-a4c03d7ec5db" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2aed4346-8012-4133-9837-e496d0f5c99a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACFCDE67-DA47-4FB4-981D-4C7D3281006C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFCCA327-4613-4AB7-899B-CACED6736245}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2638,29 +2012,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACFCDE67-DA47-4FB4-981D-4C7D3281006C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ACC6A9E-AFDB-4CBD-9896-E5C36F677490}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2aed4346-8012-4133-9837-e496d0f5c99a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="15179a99-4cef-4bac-ab20-a4c03d7ec5db"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>